--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>oktmo</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Павловский МР</t>
+  </si>
+  <si>
+    <t>город Махачкала</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +174,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +719,70 @@
         <v>348.07818998989416</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>82701000</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-2905</v>
+      </c>
+      <c r="E5" s="4">
+        <v>737031</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.14464656167786702</v>
+      </c>
+      <c r="G5" s="6">
+        <v>23914</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.25728090134607634</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4.318678590181417E-3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4.5855167557402607</v>
+      </c>
+      <c r="K5" s="8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>5.8884904434141846E-4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3.3173638557943965E-3</v>
+      </c>
+      <c r="N5" s="8">
+        <f>700/E5</f>
+        <v>9.4975652313132011E-4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2.932983822932821E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3.6260347258120759E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>486980/E5</f>
+        <v>0.66073204519212891</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1.1397078277575842E-4</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2.4609548309365549E-2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>44.398530726658713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>oktmo</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>город Махачкала</t>
+  </si>
+  <si>
+    <t>город Курск</t>
+  </si>
+  <si>
+    <t>Новохопёрский МР</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -783,6 +789,130 @@
         <v>44.398530726658713</v>
       </c>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>38701000</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1897</v>
+      </c>
+      <c r="E6" s="4">
+        <v>447387</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.24330836613491227</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25219.131849999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.89471419598691959</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.7714260807757043E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>97.734390398134039</v>
+      </c>
+      <c r="K6" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.2517127229892688E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.3455911772134639E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1.6786361695802516E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9.9645273555109999E-3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.13614680355039371</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.272602612503269</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6.482083744051571E-4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>3.6592480335816642E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>230.88501684045355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>20627000</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-47</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40333</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.11754642600352069</v>
+      </c>
+      <c r="G7" s="5">
+        <v>19539.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.35174794833015149</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.0611657947586344E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.3734534996156995</v>
+      </c>
+      <c r="K7" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3.0991991669352638E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.2892668534450699E-3</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.0331490342895395E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.2278531227530807</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.93820940668931152</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>82.169960082314731</v>
+      </c>
+      <c r="R7" s="5">
+        <v>7.9339498673542752E-4</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2.3206803362011256E-2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>101.40950586368483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>oktmo</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Новохопёрский МР</t>
+  </si>
+  <si>
+    <t>Лаишевский МР</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +916,68 @@
         <v>101.40950586368483</v>
       </c>
     </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>92634000</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3578</v>
+      </c>
+      <c r="E8" s="4">
+        <v>47423</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.34242877928431353</v>
+      </c>
+      <c r="G8" s="5">
+        <v>37980</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.54330177340109231</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.3722666216814625E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>53.024439617906921</v>
+      </c>
+      <c r="K8" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3.6901925226156085E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.1176011639921558E-3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.201526685363642E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.35423739535668347</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.7574299390591066</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>140.13062016321194</v>
+      </c>
+      <c r="R8" s="5">
+        <v>8.8564620542774602E-4</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5.6723530776205636E-2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>873.40777892583776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>oktmo</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Лаишевский МР</t>
+  </si>
+  <si>
+    <t>город-курорт Анапа</t>
+  </si>
+  <si>
+    <t>город-курорт Геленджик</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +984,130 @@
         <v>873.40777892583776</v>
       </c>
     </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3703000</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1763</v>
+      </c>
+      <c r="E9" s="4">
+        <v>212839</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.13402618880938175</v>
+      </c>
+      <c r="G9" s="6">
+        <v>23354.08466</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.66409633572794458</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.11628507933226523</v>
+      </c>
+      <c r="J9" s="7">
+        <v>101.42730103688706</v>
+      </c>
+      <c r="K9" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.2129402975958352E-3</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.3343419204187201E-3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4.5414609164673766E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.87642302397586913</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.41760062770450901</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>16.504679212456363</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1.9733225583657132E-4</v>
+      </c>
+      <c r="S9" s="7">
+        <v>4.0608159218940135E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>196.87771655772673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3708000</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-43</v>
+      </c>
+      <c r="E10" s="4">
+        <v>115048</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.16380119602252974</v>
+      </c>
+      <c r="G10" s="6">
+        <v>25688.450580000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.2728165635213129</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.25154718030734996</v>
+      </c>
+      <c r="J10" s="7">
+        <v>123.63113805385579</v>
+      </c>
+      <c r="K10" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2.6684514289687781E-3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.3369028579375562E-3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3.4689868576594121E-3</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.11611675126903553</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5.9559488213615182E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>3.6999218004658925</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2.1730060496488423E-4</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5.0326820109867186E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>107.78377544607469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>oktmo</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>город-курорт Геленджик</t>
+  </si>
+  <si>
+    <t>Ангарский</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1111,68 @@
         <v>107.78377544607469</v>
       </c>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>25703000</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-194</v>
+      </c>
+      <c r="E11" s="4">
+        <v>236912</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.22602907408658068</v>
+      </c>
+      <c r="G11" s="6">
+        <v>34942.071599999996</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.99471533734044704</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3.4392517052745326E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>49.184704711622878</v>
+      </c>
+      <c r="K11" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.7052745323157966E-3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.8664145336665093E-3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.9935672317147298E-3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>3.7435841156209904E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.29477189842641993</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>7.9265926504356052</v>
+      </c>
+      <c r="R11" s="7">
+        <v>7.5977578172485983E-5</v>
+      </c>
+      <c r="S11" s="7">
+        <v>5.778094820017559E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>286.70030183089074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/new examples.xlsx
+++ b/migforecasting/clustering/new examples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>oktmo</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Ангарский</t>
+  </si>
+  <si>
+    <t>Чойский МР</t>
   </si>
 </sst>
 </file>
@@ -477,16 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1173,6 +1177,68 @@
         <v>286.70030183089074</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>84645000</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-136</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8315</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.17714972940469031</v>
+      </c>
+      <c r="G12" s="7">
+        <v>20566.364119999998</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.69592303066746852</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.7919422730006015E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>49.556223692122671</v>
+      </c>
+      <c r="K12" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2.1647624774503911E-3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>8.4185207456404084E-4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1.8989777510523151E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1.2476247745039086</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.56698376428141917</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>22.949180844257366</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1.2026458208057728E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <v>7.4323511725796751E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>29.9954811785929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
